--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V3.0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V3.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Uni\IV\MOD. PROCESOS\PROYECTO\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784A125C-6C23-4046-A2E7-B8A1DD044B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C85E1-CDB7-4E6F-8EC8-5BFCD9D4A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -22,26 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="umbVZyOcx52yre52oR6StKY4AhwVaEfQZSgxcWGFbfY="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="170">
   <si>
     <t>t</t>
   </si>
@@ -281,9 +267,6 @@
     <t>Mostrar los datos de la base de datos en la interfaz</t>
   </si>
   <si>
-    <t>REQ001-4</t>
-  </si>
-  <si>
     <t>Almacenamiento de los datos en la base de datos</t>
   </si>
   <si>
@@ -323,9 +306,6 @@
     <t>REQ004-3</t>
   </si>
   <si>
-    <t>REQ002-4</t>
-  </si>
-  <si>
     <t>Creación de Controlador</t>
   </si>
   <si>
@@ -350,15 +330,6 @@
     <t>REQ006-1</t>
   </si>
   <si>
-    <t>REQ006-2</t>
-  </si>
-  <si>
-    <t>REQ006-3</t>
-  </si>
-  <si>
-    <t>REQ006-4</t>
-  </si>
-  <si>
     <t>REQ007-1</t>
   </si>
   <si>
@@ -368,9 +339,6 @@
     <t>REQ007-3</t>
   </si>
   <si>
-    <t>REQ007-4</t>
-  </si>
-  <si>
     <t>REQ008-1</t>
   </si>
   <si>
@@ -390,6 +358,183 @@
   </si>
   <si>
     <t>REQ010-3</t>
+  </si>
+  <si>
+    <t>Inicio de sesion</t>
+  </si>
+  <si>
+    <t>Tener una pantalla de inicio de sesión</t>
+  </si>
+  <si>
+    <t>ingresar al sistema con un usuario y contraseña</t>
+  </si>
+  <si>
+    <t>Visualización del perfil del usuario</t>
+  </si>
+  <si>
+    <t>Ver la informació del perfil</t>
+  </si>
+  <si>
+    <t>verificar mis datos de inicio de sesión y sueldo  base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización del perfil de usuario </t>
+  </si>
+  <si>
+    <t>Disponer de una sección de perfil de usuario</t>
+  </si>
+  <si>
+    <t>actualizar la información de usuario y contraseña</t>
+  </si>
+  <si>
+    <t>Disponer de un listado de los materiales</t>
+  </si>
+  <si>
+    <t>comprobar los materiales disponibles y sus características como el costo unitario</t>
+  </si>
+  <si>
+    <t>Tener un formulario de ingreso de materiales</t>
+  </si>
+  <si>
+    <t>poder agregar materiales a la lista y referenciarlos en los productos</t>
+  </si>
+  <si>
+    <t>Tener la opción de búsqueda por ID y nombre</t>
+  </si>
+  <si>
+    <t>encontrar materiales en la lista</t>
+  </si>
+  <si>
+    <t>Tener la opción de actualizar los materiales</t>
+  </si>
+  <si>
+    <t>modificar la información de los materiales</t>
+  </si>
+  <si>
+    <t>Eliminación de materiales.</t>
+  </si>
+  <si>
+    <t>Tener la opción de eliminar los materiales</t>
+  </si>
+  <si>
+    <t>evitar redundancia y liberar la lista de materiales innecesarios</t>
+  </si>
+  <si>
+    <t>Disponer de un listado de los productos</t>
+  </si>
+  <si>
+    <t>comprobar los productos disponibles y sus características como el costo de producción</t>
+  </si>
+  <si>
+    <t>Añadir productos</t>
+  </si>
+  <si>
+    <t>Tener un formulario de ingreso de productos</t>
+  </si>
+  <si>
+    <t>poder agregar productos a la lista de inventario</t>
+  </si>
+  <si>
+    <t>REQ011</t>
+  </si>
+  <si>
+    <t>encontrar productos en la lista</t>
+  </si>
+  <si>
+    <t>REQ012</t>
+  </si>
+  <si>
+    <t>Tener la opción de actualizar los productos</t>
+  </si>
+  <si>
+    <t>modificar la información de los productos</t>
+  </si>
+  <si>
+    <t>REQ013</t>
+  </si>
+  <si>
+    <t>Tener la opción de eliminar los productos</t>
+  </si>
+  <si>
+    <t>evitar redundancia y liberar la lista de productos innecesarios</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Crear interfaz de inicio de sesión</t>
+  </si>
+  <si>
+    <t>Crear la base de datos y tabla de usuarios</t>
+  </si>
+  <si>
+    <t>Hacer la validación de usuario y contraseña</t>
+  </si>
+  <si>
+    <t>Crear interfaz de perfil de usuario</t>
+  </si>
+  <si>
+    <t>Recuperar la información de la base de datos</t>
+  </si>
+  <si>
+    <t>Actualización del perfil de usuario</t>
+  </si>
+  <si>
+    <t>Crear la conexión a la base de datos para actualizar el perfil</t>
+  </si>
+  <si>
+    <t>Leonardo Obando</t>
+  </si>
+  <si>
+    <t>Hacer la validación de ingreso de  usuario, contraseña, sueldo base y correo</t>
+  </si>
+  <si>
+    <t>REQ003-2</t>
+  </si>
+  <si>
+    <t>REQ003-3</t>
+  </si>
+  <si>
+    <t>REQ004-4</t>
+  </si>
+  <si>
+    <t>REQ005-4</t>
+  </si>
+  <si>
+    <t>REQ008-2</t>
+  </si>
+  <si>
+    <t>REQ008-3</t>
+  </si>
+  <si>
+    <t>REQ009-4</t>
+  </si>
+  <si>
+    <t>REQ010-4</t>
+  </si>
+  <si>
+    <t>REQ011-1</t>
+  </si>
+  <si>
+    <t>REQ012-1</t>
+  </si>
+  <si>
+    <t>REQ012-2</t>
+  </si>
+  <si>
+    <t>REQ012-3</t>
+  </si>
+  <si>
+    <t>REQ013-1</t>
+  </si>
+  <si>
+    <t>REQ013-2</t>
+  </si>
+  <si>
+    <t>REQ013-3</t>
   </si>
   <si>
     <r>
@@ -411,7 +556,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>En general las actividades del Sprint se desarrollaron dentro del tiempo estimado, es decir, el equipo de trabajo se ha desenvuelto productivamente ya que de un total de 52 horas estimadas se finalizaron las actividades con 2 horas de diferencia, sin embargo, se observa que el ritmo de trabajo es estable en la mayoría del trayecto.</t>
+      <t>En general las actividades se desarrollaron muy por encima del tiempo estimado durante  la segunda mitad del trayecto y deacuerdo al tiempo en la primera mitad. Se observa que el ritmo de trabajo no es  muy estable.</t>
     </r>
   </si>
 </sst>
@@ -419,7 +564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -477,10 +622,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -509,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -524,26 +674,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,15 +707,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{050A31A9-1A03-44C1-B72C-C669D1227D40}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -656,7 +794,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$B$37:$H$37</c:f>
+              <c:f>burdonchart!$B$41:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -664,22 +802,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,7 +847,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>burdonchart!$B$38:$H$38</c:f>
+              <c:f>burdonchart!$B$42:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -717,22 +855,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +937,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2087969067"/>
@@ -875,7 +1013,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="416555524"/>
@@ -898,7 +1036,7 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -919,9 +1057,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>708865</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22772</xdr:rowOff>
+      <xdr:colOff>238965</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>73572</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -951,10 +1089,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="I7:I33" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="I13:I39" headerRowCount="0">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1">
-      <calculatedColumnFormula>SUM(D7:H7)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(D13:H13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="burdonchart-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -1169,8 +1307,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="A11:H11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1210,21 +1348,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>57</v>
+      <c r="D2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -1233,21 +1371,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>58</v>
+      <c r="D3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -1256,45 +1394,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
+      <c r="D4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>62</v>
+      <c r="D5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
@@ -1303,21 +1441,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
+      <c r="D6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
@@ -1326,21 +1464,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>70</v>
+      <c r="D7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>10</v>
@@ -1349,21 +1487,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>71</v>
+      <c r="D8" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -1372,21 +1510,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>72</v>
+      <c r="D9" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -1395,21 +1533,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>73</v>
+      <c r="D10" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
@@ -1418,21 +1556,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>74</v>
+      <c r="D11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>10</v>
@@ -1441,9 +1579,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2442,10 +2646,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:I1002"/>
+  <dimension ref="B1:I993"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92:I94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2457,249 +2661,316 @@
     <col min="7" max="26" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>36</v>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
+      <c r="I5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6">
-        <v>1</v>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2">
+        <f>SUM(I4:I6)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="8" t="s">
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2">
-        <f>SUM(I6:I9)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="I14" s="2">
+        <f>SUM(I12:I13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="7" t="s">
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
+      <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="4" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>3</v>
-      </c>
-    </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>27</v>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>26</v>
@@ -2710,14 +2981,14 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>93</v>
+      <c r="B20" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
@@ -2725,458 +2996,489 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="9" t="s">
+      <c r="B21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I21">
-        <f>SUM(I17:I20)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="I22">
+        <f>SUM(I19:I21)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="7" t="s">
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="E25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="4" t="s">
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="2" t="s">
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="9" t="s">
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I28">
-        <f ca="1">SUM(I26:I28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+      <c r="I32" s="2">
+        <f>SUM(I27:I30)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="7" t="s">
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
+      <c r="E36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="9" t="s">
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I37">
-        <f>SUM(I34:I36)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="I42">
+        <f>SUM(I38:I41)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="7" t="s">
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="4" t="s">
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="4" t="s">
+      <c r="H46" s="2"/>
+      <c r="I46" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" t="s">
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49">
+        <f ca="1">SUM(I47:I49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
         <v>85</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="2"/>
-      <c r="H47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47">
-        <f>SUM(I44:I46)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>95</v>
       </c>
       <c r="G55" t="s">
         <v>26</v>
@@ -3186,49 +3488,48 @@
       </c>
     </row>
     <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>103</v>
+      <c r="B56" t="s">
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>104</v>
+      <c r="B57" t="s">
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H59" s="8" t="s">
+      <c r="H58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I59" s="2">
-        <f>SUM(I54:I57)</f>
+      <c r="I58">
+        <f>SUM(I55:I57)</f>
         <v>6</v>
       </c>
     </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3259,19 +3560,19 @@
     </row>
     <row r="63" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
@@ -3299,10 +3600,10 @@
     </row>
     <row r="65" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
@@ -3313,10 +3614,10 @@
     </row>
     <row r="66" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
@@ -3328,431 +3629,673 @@
     </row>
     <row r="67" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="2"/>
+      <c r="H68" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I68">
+        <f>SUM(I65:I67)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H80" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I80" s="2">
+        <f>SUM(I75:I78)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I69">
-        <f>SUM(I65:I68)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" s="7" t="s">
+    <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7" t="s">
+      <c r="E84" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I84" s="7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I76">
-        <f ca="1">SUM(I74:I76)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H81" s="2"/>
-      <c r="I81" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>111</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="9" t="s">
+      <c r="C85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I85">
-        <f>SUM(I82:I84)</f>
+      <c r="I90">
+        <f>SUM(I86:I89)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97">
+        <f ca="1">SUM(I95:I97)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+      <c r="C102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" t="s">
+        <v>85</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106">
+        <f>SUM(I103:I105)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+    <row r="107" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I110" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C90" s="7" t="s">
+    <row r="111" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E111" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7" t="s">
+      <c r="G111" s="7"/>
+      <c r="H111" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I111" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="4" t="s">
+    <row r="112" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+      <c r="C112" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="4" t="s">
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="4" t="s">
+      <c r="H112" s="2"/>
+      <c r="I112" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>113</v>
-      </c>
-      <c r="C92" t="s">
-        <v>86</v>
-      </c>
-      <c r="G92" t="s">
+    <row r="113" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" t="s">
+        <v>85</v>
+      </c>
+      <c r="G113" t="s">
         <v>26</v>
       </c>
-      <c r="I92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G93" s="2" t="s">
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2">
+      <c r="H114" s="2"/>
+      <c r="I114" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G94" s="2" t="s">
+    <row r="115" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2">
+      <c r="H115" s="2"/>
+      <c r="I115" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G95" s="2"/>
-      <c r="H95" s="9" t="s">
+    <row r="116" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="2"/>
+      <c r="H116" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I95">
-        <f>SUM(I92:I94)</f>
+      <c r="I116">
+        <f>SUM(I113:I115)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4618,15 +5161,6 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4639,10 +5173,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4679,14 +5213,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4698,22 +5232,22 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I9" si="0">SUM(D4:H4)</f>
+        <f>SUM(D4:H4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4722,32 +5256,32 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I5:I6" si="0">SUM(D5:H5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4762,38 +5296,38 @@
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>79</v>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:H7)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -4801,52 +5335,52 @@
       <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I8:I9" si="1">SUM(D8:H8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
       </c>
       <c r="D9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
@@ -4865,19 +5399,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" ref="I10:I33" si="1">SUM(D10:H10)</f>
+        <f t="shared" ref="I10:I15" si="2">SUM(D10:H10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2</v>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4892,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -4919,19 +5453,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="B13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -4946,49 +5480,49 @@
         <v>0</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="D15" s="5">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -5000,22 +5534,22 @@
         <v>0</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -5027,22 +5561,22 @@
         <v>0</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I16:I39" si="3">SUM(D16:H16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>88</v>
+      <c r="B17" t="s">
+        <v>157</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -5054,130 +5588,130 @@
         <v>0</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="1"/>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
+      <c r="C22">
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="5">
-        <v>3</v>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -5189,22 +5723,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -5216,22 +5750,22 @@
         <v>0</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -5243,15 +5777,15 @@
         <v>0</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
@@ -5260,50 +5794,50 @@
       <c r="E25" s="5">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
+      <c r="B26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -5312,37 +5846,37 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5351,25 +5885,25 @@
         <v>0</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5378,25 +5912,25 @@
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5405,216 +5939,372 @@
         <v>0</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31">
+        <v>109</v>
+      </c>
+      <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" s="5">
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>3</v>
       </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" si="1"/>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="2">
+    <row r="36" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="1"/>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
+    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="2">
-        <f>SUM(C4:C33)</f>
-        <v>52</v>
-      </c>
-      <c r="D37" s="2">
-        <f>C37-SUM(D4:D33)</f>
-        <v>36</v>
-      </c>
-      <c r="E37" s="2">
-        <f>D37-SUM(E4:E33)</f>
-        <v>17</v>
-      </c>
-      <c r="F37" s="2">
-        <f>E37-SUM(F4:F33)</f>
-        <v>8</v>
-      </c>
-      <c r="G37" s="2">
-        <f>F37-SUM(G4:G33)</f>
+      <c r="C41" s="2">
+        <f>SUM(C4:C39)</f>
+        <v>61</v>
+      </c>
+      <c r="D41" s="2">
+        <f>C41-SUM(D4:D39)</f>
+        <v>43</v>
+      </c>
+      <c r="E41" s="2">
+        <f>D41-SUM(E4:E39)</f>
+        <v>22</v>
+      </c>
+      <c r="F41" s="2">
+        <f>E41-SUM(F4:F39)</f>
+        <v>12</v>
+      </c>
+      <c r="G41" s="2">
+        <f>F41-SUM(G4:G39)</f>
+        <v>7</v>
+      </c>
+      <c r="H41" s="2">
+        <f>G41-SUM(H4:H39)</f>
         <v>4</v>
       </c>
-      <c r="H37" s="2">
-        <f>G37-SUM(H4:H33)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+    </row>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2">
-        <f>SUM(D38:H38)</f>
-        <v>50</v>
-      </c>
-      <c r="D38" s="2">
-        <f>SUM(D4:D33)</f>
-        <v>16</v>
-      </c>
-      <c r="E38" s="2">
-        <f>SUM(E4:E33)</f>
-        <v>19</v>
-      </c>
-      <c r="F38" s="2">
-        <f>SUM(F4:F33)</f>
-        <v>9</v>
-      </c>
-      <c r="G38" s="2">
-        <f>SUM(G4:G33)</f>
-        <v>4</v>
-      </c>
-      <c r="H38" s="2">
-        <f>SUM(H4:H33)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C42" s="2">
+        <f>SUM(D42:H42)</f>
+        <v>57</v>
+      </c>
+      <c r="D42" s="2">
+        <f>SUM(D4:D39)</f>
+        <v>18</v>
+      </c>
+      <c r="E42" s="2">
+        <f>SUM(E4:E39)</f>
+        <v>21</v>
+      </c>
+      <c r="F42" s="2">
+        <f>SUM(F4:F39)</f>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2">
+        <f>SUM(G4:G39)</f>
+        <v>5</v>
+      </c>
+      <c r="H42" s="2">
+        <f>SUM(H4:H39)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6553,8 +7243,9 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B40:D48"/>
+    <mergeCell ref="O45:Q53"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V3.0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V3.0.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C85E1-CDB7-4E6F-8EC8-5BFCD9D4A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20AB4BF-B529-4574-A77A-0BE4D70F17D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="171">
   <si>
     <t>t</t>
   </si>
@@ -556,7 +556,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>En general las actividades se desarrollaron muy por encima del tiempo estimado durante  la segunda mitad del trayecto y deacuerdo al tiempo en la primera mitad. Se observa que el ritmo de trabajo no es  muy estable.</t>
+      <t>En general las actividades se desarrollaron muy por encima del tiempo estimado durante  la segunda mitad del trayecto y deacuerdo al tiempo en la primera mitad. Se observa que el ritmo de trabajo no es  muy estable pero las actividades se cumplen y no existen retrasos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recomendación</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Llevar un ritmo de trabajo constante durante todo el proceso para desarrollar las actividades  efectivamente  y evitar sobre esfuerzo o retrasos</t>
     </r>
   </si>
 </sst>
@@ -707,13 +729,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,19 +1371,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>112</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -1372,19 +1394,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>115</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -1395,19 +1417,19 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>118</v>
       </c>
       <c r="F4" s="3"/>
@@ -1419,19 +1441,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>120</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1442,19 +1464,19 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>122</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -1465,19 +1487,19 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>124</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -1488,19 +1510,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>126</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -1511,19 +1533,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>129</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1534,19 +1556,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>131</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1557,19 +1579,19 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>134</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1580,19 +1602,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>136</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1603,19 +1625,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1626,19 +1648,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>142</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -2773,7 +2795,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3"/>
       <c r="G7" s="2"/>
       <c r="H7" s="8" t="s">
@@ -2785,7 +2807,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5175,8 +5197,8 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="74" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6248,59 +6270,81 @@
     <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O45" s="13" t="s">
+      <c r="O45" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
     <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
     <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
     <row r="49" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
     <row r="50" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
     <row r="51" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
     <row r="52" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
     <row r="53" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
     <row r="54" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+    </row>
+    <row r="57" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+    </row>
+    <row r="58" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+    </row>
+    <row r="59" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+    </row>
+    <row r="60" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+    </row>
     <row r="61" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="15:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7242,8 +7286,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="O45:Q53"/>
+    <mergeCell ref="O56:Q60"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V3.0.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.6 Backlog/G1_Backlog_V3.0.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\QUINTO SEMESTRE MAYO 23 - SEPTIEMBRE 23\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Uni\HostProyectos\PROCESOS\NahirCarrera_14765_G1_MPSW\PREGAME\1. ELICITACIÓN\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20AB4BF-B529-4574-A77A-0BE4D70F17D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB6B24-85B8-4F8A-88BE-98E179B5D304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="674" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -959,7 +970,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2087969067"/>
@@ -1035,7 +1046,7 @@
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="416555524"/>
@@ -1058,7 +1069,7 @@
               <a:latin typeface="Roboto"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2670,8 +2681,8 @@
   </sheetPr>
   <dimension ref="B1:I993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5197,7 +5208,7 @@
   </sheetPr>
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="74" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="74" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
